--- a/학사관리 샘플데이터/샘플-성적데이터.xlsx
+++ b/학사관리 샘플데이터/샘플-성적데이터.xlsx
@@ -798,7 +798,7 @@
   <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C16" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
